--- a/data/trans_orig/P78C7_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C7_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA3F1185-D4CE-4BC1-9CC8-DE55AD304EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C6287E4-58C0-4BB9-B1EE-A2145EA2BF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BCB248FB-DDDD-4EB1-831E-F246004DFBA8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F1F34F42-714A-4C4C-B8FF-936A1B9FBB30}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="50">
   <si>
     <t>Población según si tiene resuelto  el retraso en los pagos de las tasas de autónomos en 2023 (Tasa respuesta: 0,24%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -95,7 +95,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -104,7 +104,7 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -119,7 +119,7 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -128,58 +128,61 @@
     <t>20,75%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -594,8 +597,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769FAC87-EC43-4D7E-9AEB-8962A2553E5D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CDA5EF-FE1B-47FC-A29A-2E3A65F4E2AE}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -764,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1970</v>
+        <v>1897</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
@@ -792,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>1970</v>
+        <v>1897</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -813,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1970</v>
+        <v>1897</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>18</v>
@@ -841,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>1970</v>
+        <v>1897</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>18</v>
@@ -864,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1372</v>
+        <v>1134</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>16</v>
@@ -879,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1156</v>
+        <v>877</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>16</v>
@@ -894,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>2527</v>
+        <v>2011</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>16</v>
@@ -966,7 +969,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>1372</v>
+        <v>1134</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>18</v>
@@ -981,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>1156</v>
+        <v>877</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>18</v>
@@ -996,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>2527</v>
+        <v>2011</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>18</v>
@@ -1019,7 +1022,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3530</v>
+        <v>2984</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>16</v>
@@ -1034,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1566</v>
+        <v>1375</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>16</v>
@@ -1049,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>5096</v>
+        <v>4360</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>16</v>
@@ -1121,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>3530</v>
+        <v>2984</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>18</v>
@@ -1136,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1566</v>
+        <v>1375</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>18</v>
@@ -1151,7 +1154,7 @@
         <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>5096</v>
+        <v>4360</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>18</v>
@@ -1174,7 +1177,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>3503</v>
+        <v>3123</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>16</v>
@@ -1189,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>3798</v>
+        <v>3299</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>16</v>
@@ -1204,7 +1207,7 @@
         <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>7301</v>
+        <v>6422</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>16</v>
@@ -1276,7 +1279,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>3503</v>
+        <v>3123</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>18</v>
@@ -1291,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="7">
-        <v>3798</v>
+        <v>3299</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>18</v>
@@ -1306,7 +1309,7 @@
         <v>8</v>
       </c>
       <c r="N15" s="7">
-        <v>7301</v>
+        <v>6422</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>18</v>
@@ -1329,7 +1332,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2269</v>
+        <v>1807</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>31</v>
@@ -1344,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1345</v>
+        <v>1122</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>16</v>
@@ -1359,7 +1362,7 @@
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>3614</v>
+        <v>2929</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>32</v>
@@ -1380,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1523</v>
+        <v>1428</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>34</v>
@@ -1410,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>1523</v>
+        <v>1428</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>35</v>
@@ -1431,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>3792</v>
+        <v>3235</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>18</v>
@@ -1446,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>1345</v>
+        <v>1122</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>18</v>
@@ -1461,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>5137</v>
+        <v>4357</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>18</v>
@@ -1612,55 +1615,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>9</v>
-      </c>
-      <c r="D22" s="7">
-        <v>10674</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H22" s="7">
-        <v>10</v>
-      </c>
-      <c r="I22" s="7">
-        <v>7864</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>19</v>
-      </c>
-      <c r="N22" s="7">
-        <v>18538</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1669,49 +1666,43 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="7">
-        <v>3492</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
-      </c>
-      <c r="N23" s="7">
-        <v>3493</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1720,63 +1711,213 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7">
+        <v>9047</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="7">
+        <v>10</v>
+      </c>
+      <c r="I25" s="7">
+        <v>6673</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="7">
+        <v>19</v>
+      </c>
+      <c r="N25" s="7">
+        <v>15721</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3325</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="7">
-        <v>14166</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="G26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3325</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>11</v>
+      </c>
+      <c r="D27" s="7">
+        <v>12372</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="7">
         <v>10</v>
       </c>
-      <c r="I24" s="7">
-        <v>7864</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>6673</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="7">
         <v>21</v>
       </c>
-      <c r="N24" s="7">
-        <v>22031</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>48</v>
+      <c r="N27" s="7">
+        <v>19046</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
